--- a/datasheets/compare/compare_set_algs_S-0.xlsx
+++ b/datasheets/compare/compare_set_algs_S-0.xlsx
@@ -1,37 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\OneDrive\Documents\thesis\datasheets\compare\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8568A35-95EC-436D-A7B7-3FE2ADE7E1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +79,1943 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5257</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1479</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1738</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4634</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3685</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2922</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2297</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1477</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4260</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3319</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2223</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3328</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1719</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A76-4495-83A6-D15D2F468C98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8853</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6439</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9044</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4972</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8713</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2338</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4394</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4720</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8316</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4809</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5720</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1556</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1787</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8468</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4665</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1158</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4262</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5198</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3623</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1571</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6110</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3079</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7257</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3617</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6863</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5979</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2476</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5105</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2544</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5013</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1291</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5051</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8515</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4496</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5249</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2772</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4275</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3941</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9132</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3917</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8649</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4962</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4755</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3048</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2327</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5038</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7674</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8317</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2964</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7287</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7670</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5799</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5408</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1126</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A76-4495-83A6-D15D2F468C98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2934</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4227</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6811</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1388</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9326</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5654</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2652</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4584</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8672</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5039</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3764</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5780</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8622</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4863</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7719</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7936</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4484</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4670</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3715</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6426</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3195</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4252</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7515</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4286</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2152</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3785</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6225</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2882</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5325</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2758</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5235</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1493</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5351</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8885</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4752</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5379</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3092</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4613</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4241</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9446</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4097</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3991</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8941</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2851</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5248</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5013</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3106</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5192</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7842</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8525</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7483</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2296</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8040</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6065</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5554</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6A76-4495-83A6-D15D2F468C98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="726564040"/>
+        <c:axId val="726566920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="726564040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="726566920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="726566920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Difference</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> of sums of partitions</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726564040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1418096306846622E-2"/>
+          <c:y val="0.95408332891570424"/>
+          <c:w val="0.1674733547657806"/>
+          <c:h val="3.5065174751582009E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396874</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33692415-8146-E2B1-406C-770A662467EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,1137 +2302,1128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>GR</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>KK</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1364</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1716</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>3583</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7117</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>7347</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2028</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2262</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>1003</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4067</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4463</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>331</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>529</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>231</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1725</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1941</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2608</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>2934</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>454</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>5026</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>5208</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>136</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2280</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2506</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>3983</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4227</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>5257</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>8853</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>9215</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>1479</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>6439</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>6811</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1072</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1388</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>4608</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>9044</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>9326</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>650</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>4972</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>5204</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>1034</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>5384</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5654</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>5201</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>8713</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>8995</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2338</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2652</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>448</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>4394</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4560</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>11</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>169</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>58</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>76</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>1046</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>4720</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>5018</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>230</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>280</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>4440</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4584</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2023</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>2181</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>4198</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>8316</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>8672</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>4809</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>5039</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>66</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>3608</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3764</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1633</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1841</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>2</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2188</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2408</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>1738</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>5720</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>5780</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1556</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1914</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1787</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1957</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>4634</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>8468</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>8622</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>721</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1073</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>1395</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>4665</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4863</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>3685</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>7337</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>7719</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1158</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1304</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>187</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1335</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1515</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>3048</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>7766</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>7936</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>0</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>4262</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4484</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>2</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>4396</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>4670</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>107</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>325</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>467</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>1144</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>5198</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>5520</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>89</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>3623</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>3715</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>9</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1571</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1801</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>2922</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>6110</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>6426</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>1</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>3079</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>3195</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>2</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>4048</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>4252</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>741</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1097</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>2297</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>7257</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>7515</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>32</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>3940</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>4286</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>31</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>1581</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>1915</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>4</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>2506</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>2750</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>1383</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>1711</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>0</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>1964</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>2152</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>1</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>363</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>535</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>445</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>3617</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>3785</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>3141</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>6863</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>7199</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>1761</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>5979</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>6225</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>2</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>2476</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>2882</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>359</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>1441</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>1753</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>927</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>5105</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>5325</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>0</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>2544</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>2758</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>193</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>5013</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>5235</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>195</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>1291</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1493</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>0</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>900</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1026</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>645</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>5051</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>5351</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>0</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>1004</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>1298</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>4621</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>8515</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>8885</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
         <v>614</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>4496</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>4752</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>1317</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>5249</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>5379</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>7</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>281</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>615</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>60</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>2772</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>3092</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>53</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>4275</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>4613</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>9</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>3941</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>4241</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
         <v>4480</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>9132</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>9446</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>1</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>4001</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>4097</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>1</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>3917</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>3991</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>4617</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>8649</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>8941</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>1</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>2689</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>2851</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>1650</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>4962</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>5248</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>1477</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>4755</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>5013</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>0</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>3048</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>3106</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
         <v>1</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>2327</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>2601</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>261</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>1295</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>1437</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
         <v>1090</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>5038</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>5192</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>4260</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>7674</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>7842</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
         <v>3319</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>8317</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>8525</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
         <v>3</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>25</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>207</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>0</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>2964</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>3070</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>13</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>25</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>229</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
         <v>2223</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>7287</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>7483</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>12</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>1970</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>2296</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>6</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>122</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>268</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>3328</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>7670</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>8040</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>1719</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>5799</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>6065</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>582</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>5408</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>5554</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>2</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>1126</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>1334</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>6155</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>10089</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>10389</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>